--- a/docs/condition-uv-ips.xlsx
+++ b/docs/condition-uv-ips.xlsx
@@ -822,7 +822,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[CanonicalType[http://hl7.org/fhir/ips/StructureDefinition/CodeableConcept-uv-ips]]} {[]}
+    <t xml:space="preserve">CodeableConcept {[CanonicalType[http://hl7.org/fhir/ips/StructureDefinition/codeableconcept-uv-ips]]} {[]}
 </t>
   </si>
   <si>

--- a/docs/condition-uv-ips.xlsx
+++ b/docs/condition-uv-ips.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$188</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6014" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="488">
   <si>
     <t>Path</t>
   </si>
@@ -933,6 +933,9 @@
 </t>
   </si>
   <si>
+    <t>Identification of the condition, problem or diagnosis</t>
+  </si>
+  <si>
     <t>Identification of the condition, problem or diagnosis or recording of "problem absent" or of "problems unknown".</t>
   </si>
   <si>
@@ -964,6 +967,45 @@
     <t>Condition.code.coding</t>
   </si>
   <si>
+    <t>Condition.code.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.system</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.version</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.display</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.code.text</t>
+  </si>
+  <si>
+    <t>absentOrUnknownProblem</t>
+  </si>
+  <si>
+    <t>Code for absent problem or for unknown problem</t>
+  </si>
+  <si>
+    <t>Code representing the statement "absent problem" or the statement "problems unknown"</t>
+  </si>
+  <si>
+    <t>Absent problem or unknown problem</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir//ips/ValueSet/absent-or-unknown-problems-uv-ips</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coding {[CanonicalType[http://hl7.org/fhir/ips/StructureDefinition/coding-uv-ips]]} {[]}
 </t>
   </si>
@@ -974,22 +1016,7 @@
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
-    <t>Condition.code.coding.id</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.system</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.version</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.code</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.display</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="urn:oid:2.16.840.1.113883.3.1937.777.13.5.999.1"/&gt;</t>
   </si>
   <si>
     <t>Condition.code.coding.display.id</t>
@@ -1027,31 +1054,10 @@
     <t>string.value</t>
   </si>
   <si>
-    <t>Condition.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Condition.code.text</t>
-  </si>
-  <si>
-    <t>absentOrUnknownProblem</t>
-  </si>
-  <si>
-    <t>Code for absent condition or for unknown condition</t>
-  </si>
-  <si>
-    <t>Code representing the statement "absent problem" or the statement "problems unknown"</t>
-  </si>
-  <si>
-    <t>Absence or unknown</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir//ips/ValueSet/absent-or-unknown-problems-uv-ips</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="urn:oid:2.16.840.1.113883.3.1937.777.13.5.999.1"/&gt;</t>
-  </si>
-  <si>
     <t>@default</t>
+  </si>
+  <si>
+    <t>Identification of the problem</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ips/ValueSet/core-problem-list-disorders-uv-ips</t>
@@ -1680,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ192"/>
+  <dimension ref="A1:AJ188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8234,19 +8240,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>276</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>36</v>
@@ -8271,26 +8277,26 @@
         <v>36</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AB66" s="2"/>
       <c r="AC66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>291</v>
@@ -8310,7 +8316,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8409,7 +8415,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8508,7 +8514,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8519,7 +8525,7 @@
         <v>37</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>36</v>
@@ -8531,16 +8537,16 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>303</v>
+        <v>138</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>140</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>142</v>
@@ -8609,7 +8615,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8708,7 +8714,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8807,7 +8813,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8908,7 +8914,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9007,7 +9013,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9108,7 +9114,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9209,7 +9215,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9229,21 +9235,23 @@
         <v>36</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>36</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>36</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>37</v>
@@ -9308,18 +9316,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>36</v>
@@ -9328,21 +9336,23 @@
         <v>36</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>36</v>
       </c>
@@ -9378,49 +9388,49 @@
         <v>36</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>36</v>
@@ -9429,21 +9439,23 @@
         <v>36</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>36</v>
       </c>
@@ -9467,13 +9479,13 @@
         <v>36</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>36</v>
@@ -9491,24 +9503,24 @@
         <v>36</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9531,15 +9543,17 @@
         <v>36</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>36</v>
@@ -9561,7 +9575,7 @@
         <v>36</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>36</v>
@@ -9588,7 +9602,7 @@
         <v>36</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>37</v>
@@ -9597,26 +9611,26 @@
         <v>44</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>36</v>
@@ -9625,23 +9639,21 @@
         <v>36</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>36</v>
       </c>
@@ -9677,36 +9689,36 @@
         <v>36</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9714,10 +9726,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>36</v>
@@ -9729,19 +9741,19 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>36</v>
@@ -9790,13 +9802,13 @@
         <v>36</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>51</v>
@@ -9805,15 +9817,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -9823,29 +9833,27 @@
         <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>326</v>
+        <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>327</v>
+        <v>111</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>36</v>
       </c>
@@ -9869,13 +9877,13 @@
         <v>36</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>36</v>
@@ -9893,7 +9901,7 @@
         <v>36</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>37</v>
@@ -9910,18 +9918,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>36</v>
@@ -9933,16 +9941,16 @@
         <v>36</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -9980,47 +9988,47 @@
         <v>36</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>36</v>
@@ -10029,27 +10037,29 @@
         <v>36</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>36</v>
@@ -10079,36 +10089,36 @@
         <v>36</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10116,7 +10126,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>44</v>
@@ -10131,20 +10141,18 @@
         <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>36</v>
       </c>
@@ -10192,13 +10200,13 @@
         <v>36</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>51</v>
@@ -10209,7 +10217,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10217,7 +10225,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>44</v>
@@ -10229,21 +10237,23 @@
         <v>36</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>36</v>
       </c>
@@ -10291,7 +10301,7 @@
         <v>36</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>37</v>
@@ -10308,18 +10318,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>36</v>
@@ -10328,21 +10338,23 @@
         <v>36</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>36</v>
       </c>
@@ -10378,36 +10390,36 @@
         <v>36</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10415,7 +10427,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>44</v>
@@ -10427,29 +10439,27 @@
         <v>36</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>36</v>
@@ -10491,7 +10501,7 @@
         <v>36</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>37</v>
@@ -10508,18 +10518,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>36</v>
@@ -10528,19 +10538,19 @@
         <v>36</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -10578,47 +10588,49 @@
         <v>36</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C90" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>36</v>
@@ -10627,23 +10639,21 @@
         <v>36</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>36</v>
       </c>
@@ -10691,24 +10701,24 @@
         <v>36</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10728,23 +10738,19 @@
         <v>36</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>36</v>
       </c>
@@ -10765,7 +10771,7 @@
         <v>36</v>
       </c>
       <c r="V91" t="s" s="2">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="W91" t="s" s="2">
         <v>36</v>
@@ -10792,7 +10798,7 @@
         <v>36</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>166</v>
+        <v>331</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>37</v>
@@ -10801,15 +10807,15 @@
         <v>44</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10829,21 +10835,23 @@
         <v>36</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>36</v>
       </c>
@@ -10891,7 +10899,7 @@
         <v>36</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>37</v>
@@ -10908,18 +10916,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>36</v>
@@ -10928,21 +10936,23 @@
         <v>36</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>36</v>
       </c>
@@ -10978,49 +10988,49 @@
         <v>36</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>36</v>
@@ -11029,21 +11039,23 @@
         <v>36</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>36</v>
       </c>
@@ -11067,13 +11079,13 @@
         <v>36</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>36</v>
@@ -11091,24 +11103,24 @@
         <v>36</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11131,15 +11143,17 @@
         <v>36</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>36</v>
@@ -11161,7 +11175,7 @@
         <v>36</v>
       </c>
       <c r="V95" t="s" s="2">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="W95" t="s" s="2">
         <v>36</v>
@@ -11188,7 +11202,7 @@
         <v>36</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>37</v>
@@ -11197,26 +11211,26 @@
         <v>44</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>36</v>
@@ -11225,23 +11239,21 @@
         <v>36</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>36</v>
       </c>
@@ -11277,36 +11289,36 @@
         <v>36</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11317,7 +11329,7 @@
         <v>37</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>36</v>
@@ -11329,19 +11341,19 @@
         <v>45</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>36</v>
@@ -11390,13 +11402,13 @@
         <v>36</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>51</v>
@@ -11405,15 +11417,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -11423,24 +11433,26 @@
         <v>44</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>36</v>
@@ -11465,13 +11477,13 @@
         <v>36</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>36</v>
@@ -11489,7 +11501,7 @@
         <v>36</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>37</v>
@@ -11506,18 +11518,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>36</v>
@@ -11529,16 +11541,16 @@
         <v>36</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -11576,47 +11588,47 @@
         <v>36</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>36</v>
@@ -11625,21 +11637,23 @@
         <v>36</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>36</v>
       </c>
@@ -11675,36 +11689,36 @@
         <v>36</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11715,7 +11729,7 @@
         <v>37</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>36</v>
@@ -11727,20 +11741,18 @@
         <v>45</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>36</v>
       </c>
@@ -11788,13 +11800,13 @@
         <v>36</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>51</v>
@@ -11805,7 +11817,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11825,21 +11837,23 @@
         <v>36</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>36</v>
       </c>
@@ -11887,7 +11901,7 @@
         <v>36</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>37</v>
@@ -11904,18 +11918,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>36</v>
@@ -11924,21 +11938,23 @@
         <v>36</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>36</v>
       </c>
@@ -11974,36 +11990,36 @@
         <v>36</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12026,19 +12042,19 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>36</v>
@@ -12087,7 +12103,7 @@
         <v>36</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>37</v>
@@ -12104,7 +12120,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12130,15 +12146,17 @@
         <v>109</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>36</v>
       </c>
@@ -12186,7 +12204,7 @@
         <v>36</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>37</v>
@@ -12203,7 +12221,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12214,7 +12232,7 @@
         <v>37</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>36</v>
@@ -12226,20 +12244,18 @@
         <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>36</v>
       </c>
@@ -12263,13 +12279,13 @@
         <v>36</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>36</v>
@@ -12287,13 +12303,13 @@
         <v>36</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>51</v>
@@ -12304,7 +12320,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12324,23 +12340,21 @@
         <v>36</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N107" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>36</v>
       </c>
@@ -12388,7 +12402,7 @@
         <v>36</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>37</v>
@@ -12405,18 +12419,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>36</v>
@@ -12425,23 +12439,21 @@
         <v>36</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>36</v>
       </c>
@@ -12477,36 +12489,36 @@
         <v>36</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -12517,7 +12529,7 @@
         <v>37</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>36</v>
@@ -12529,19 +12541,19 @@
         <v>45</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>36</v>
@@ -12590,13 +12602,13 @@
         <v>36</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>51</v>
@@ -12607,7 +12619,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -12618,7 +12630,7 @@
         <v>37</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>36</v>
@@ -12627,19 +12639,19 @@
         <v>36</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -12665,13 +12677,13 @@
         <v>36</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>36</v>
@@ -12689,13 +12701,13 @@
         <v>36</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>51</v>
@@ -12706,18 +12718,18 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>36</v>
@@ -12729,16 +12741,16 @@
         <v>36</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -12776,47 +12788,47 @@
         <v>36</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC111" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>36</v>
@@ -12825,21 +12837,23 @@
         <v>36</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>36</v>
       </c>
@@ -12875,36 +12889,36 @@
         <v>36</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -12915,7 +12929,7 @@
         <v>37</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>36</v>
@@ -12927,20 +12941,18 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>36</v>
       </c>
@@ -12988,13 +13000,13 @@
         <v>36</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>51</v>
@@ -13005,7 +13017,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13025,21 +13037,23 @@
         <v>36</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>36</v>
       </c>
@@ -13087,7 +13101,7 @@
         <v>36</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>37</v>
@@ -13104,18 +13118,18 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>36</v>
@@ -13124,21 +13138,23 @@
         <v>36</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>36</v>
       </c>
@@ -13174,36 +13190,36 @@
         <v>36</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC115" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -13226,19 +13242,19 @@
         <v>45</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>36</v>
@@ -13287,7 +13303,7 @@
         <v>36</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>37</v>
@@ -13304,7 +13320,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -13330,15 +13346,17 @@
         <v>109</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>36</v>
       </c>
@@ -13386,7 +13404,7 @@
         <v>36</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>37</v>
@@ -13401,23 +13419,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>36</v>
@@ -13426,19 +13444,19 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>112</v>
+        <v>354</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>36</v>
@@ -13487,10 +13505,10 @@
         <v>36</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>44</v>
@@ -13499,12 +13517,12 @@
         <v>51</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -13524,23 +13542,21 @@
         <v>36</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N119" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>36</v>
       </c>
@@ -13588,7 +13604,7 @@
         <v>36</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>37</v>
@@ -13605,18 +13621,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>36</v>
@@ -13625,23 +13641,21 @@
         <v>36</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>36</v>
       </c>
@@ -13677,36 +13691,36 @@
         <v>36</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -13732,17 +13746,15 @@
         <v>109</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>36</v>
       </c>
@@ -13790,7 +13802,7 @@
         <v>36</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>37</v>
@@ -13799,29 +13811,29 @@
         <v>44</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>36</v>
@@ -13830,20 +13842,18 @@
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>36</v>
       </c>
@@ -13891,10 +13901,10 @@
         <v>36</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>44</v>
@@ -13903,12 +13913,12 @@
         <v>51</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -13928,19 +13938,19 @@
         <v>36</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -13990,7 +14000,7 @@
         <v>36</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>37</v>
@@ -14007,18 +14017,18 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>36</v>
@@ -14027,19 +14037,19 @@
         <v>36</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>91</v>
+        <v>364</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>115</v>
+        <v>365</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14077,36 +14087,36 @@
         <v>36</v>
       </c>
       <c r="AA124" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC124" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>116</v>
+        <v>361</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>98</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -14126,19 +14136,19 @@
         <v>36</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -14188,7 +14198,7 @@
         <v>36</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>37</v>
@@ -14197,7 +14207,7 @@
         <v>44</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>52</v>
@@ -14205,18 +14215,18 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>36</v>
@@ -14225,19 +14235,19 @@
         <v>36</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -14275,36 +14285,36 @@
         <v>36</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC126" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -14330,13 +14340,13 @@
         <v>109</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -14386,7 +14396,7 @@
         <v>36</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>37</v>
@@ -14395,7 +14405,7 @@
         <v>44</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>52</v>
@@ -14403,11 +14413,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -14426,16 +14436,16 @@
         <v>45</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>361</v>
+        <v>104</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -14485,7 +14495,7 @@
         <v>36</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>359</v>
+        <v>234</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>37</v>
@@ -14497,12 +14507,12 @@
         <v>51</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -14522,19 +14532,19 @@
         <v>36</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -14584,7 +14594,7 @@
         <v>36</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>37</v>
@@ -14599,41 +14609,43 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B130" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C130" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -14671,36 +14683,36 @@
         <v>36</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>116</v>
+        <v>377</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -14714,25 +14726,25 @@
         <v>44</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>109</v>
+        <v>379</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>226</v>
+        <v>381</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>227</v>
+        <v>382</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -14782,7 +14794,7 @@
         <v>36</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>228</v>
+        <v>378</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>37</v>
@@ -14791,7 +14803,7 @@
         <v>44</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>229</v>
+        <v>383</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>52</v>
@@ -14799,7 +14811,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -14822,16 +14834,16 @@
         <v>45</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>231</v>
+        <v>385</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>232</v>
+        <v>386</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>233</v>
+        <v>387</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -14881,7 +14893,7 @@
         <v>36</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>234</v>
+        <v>384</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>37</v>
@@ -14898,7 +14910,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -14921,16 +14933,16 @@
         <v>45</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>236</v>
+        <v>390</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>237</v>
+        <v>391</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -14980,7 +14992,7 @@
         <v>36</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>37</v>
@@ -14992,46 +15004,44 @@
         <v>51</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>372</v>
+        <v>110</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>373</v>
+        <v>111</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>374</v>
+        <v>112</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -15081,7 +15091,7 @@
         <v>36</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>37</v>
@@ -15096,23 +15106,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>36</v>
@@ -15121,16 +15131,16 @@
         <v>36</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>377</v>
+        <v>90</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>378</v>
+        <v>91</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>379</v>
+        <v>115</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>380</v>
+        <v>93</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -15168,36 +15178,36 @@
         <v>36</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>376</v>
+        <v>116</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>381</v>
+        <v>51</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -15220,16 +15230,16 @@
         <v>45</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>383</v>
+        <v>225</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>384</v>
+        <v>226</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -15279,7 +15289,7 @@
         <v>36</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>37</v>
@@ -15288,7 +15298,7 @@
         <v>44</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>52</v>
@@ -15296,7 +15306,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -15307,7 +15317,7 @@
         <v>37</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>36</v>
@@ -15319,16 +15329,16 @@
         <v>45</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>388</v>
+        <v>231</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>389</v>
+        <v>232</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -15378,7 +15388,7 @@
         <v>36</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>386</v>
+        <v>234</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>37</v>
@@ -15390,12 +15400,12 @@
         <v>51</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -15415,19 +15425,19 @@
         <v>36</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -15477,7 +15487,7 @@
         <v>36</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>37</v>
@@ -15494,18 +15504,18 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>36</v>
@@ -15517,17 +15527,15 @@
         <v>36</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>91</v>
+        <v>399</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>36</v>
@@ -15564,36 +15572,36 @@
         <v>36</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC139" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>116</v>
+        <v>397</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>98</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -15613,19 +15621,19 @@
         <v>36</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -15675,7 +15683,7 @@
         <v>36</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>37</v>
@@ -15684,7 +15692,7 @@
         <v>44</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>52</v>
@@ -15692,18 +15700,18 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>36</v>
@@ -15712,19 +15720,19 @@
         <v>36</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -15762,68 +15770,68 @@
         <v>36</v>
       </c>
       <c r="AA141" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB141" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC141" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD141" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>36</v>
+        <v>405</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>36</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -15873,24 +15881,24 @@
         <v>36</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -15913,15 +15921,17 @@
         <v>36</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M143" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>36</v>
@@ -15946,13 +15956,13 @@
         <v>36</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>36</v>
+        <v>412</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>36</v>
@@ -15970,7 +15980,7 @@
         <v>36</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>37</v>
@@ -15979,15 +15989,15 @@
         <v>44</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>51</v>
+        <v>413</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>399</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -16086,7 +16096,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -16185,11 +16195,11 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>403</v>
+        <v>36</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -16202,24 +16212,26 @@
         <v>36</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>404</v>
+        <v>140</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>36</v>
       </c>
@@ -16267,7 +16279,7 @@
         <v>36</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>405</v>
+        <v>143</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>37</v>
@@ -16279,12 +16291,12 @@
         <v>51</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -16307,16 +16319,16 @@
         <v>36</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>407</v>
+        <v>110</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -16342,13 +16354,13 @@
         <v>36</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>36</v>
@@ -16366,7 +16378,7 @@
         <v>36</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>406</v>
+        <v>113</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>37</v>
@@ -16375,7 +16387,7 @@
         <v>44</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>52</v>
@@ -16383,18 +16395,18 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>36</v>
@@ -16406,16 +16418,16 @@
         <v>36</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -16453,47 +16465,47 @@
         <v>36</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC148" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>36</v>
@@ -16502,21 +16514,23 @@
         <v>36</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O149" t="s" s="2">
         <v>36</v>
       </c>
@@ -16552,36 +16566,36 @@
         <v>36</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC149" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -16592,7 +16606,7 @@
         <v>37</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>36</v>
@@ -16604,20 +16618,18 @@
         <v>45</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>36</v>
       </c>
@@ -16665,13 +16677,13 @@
         <v>36</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>51</v>
@@ -16682,7 +16694,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -16702,21 +16714,23 @@
         <v>36</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N151" s="2"/>
+      <c r="N151" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>36</v>
       </c>
@@ -16764,7 +16778,7 @@
         <v>36</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>37</v>
@@ -16781,18 +16795,18 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>36</v>
@@ -16801,21 +16815,23 @@
         <v>36</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>36</v>
       </c>
@@ -16851,36 +16867,36 @@
         <v>36</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -16903,19 +16919,19 @@
         <v>45</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>36</v>
@@ -16964,7 +16980,7 @@
         <v>36</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>37</v>
@@ -16981,7 +16997,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -17007,15 +17023,17 @@
         <v>109</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N154" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>36</v>
       </c>
@@ -17063,7 +17081,7 @@
         <v>36</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>37</v>
@@ -17080,7 +17098,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -17091,7 +17109,7 @@
         <v>37</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>36</v>
@@ -17100,23 +17118,21 @@
         <v>36</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>159</v>
+        <v>428</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>36</v>
       </c>
@@ -17164,24 +17180,24 @@
         <v>36</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>161</v>
+        <v>425</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>51</v>
+        <v>413</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -17201,23 +17217,21 @@
         <v>36</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="M156" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N156" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>36</v>
       </c>
@@ -17265,7 +17279,7 @@
         <v>36</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>37</v>
@@ -17282,18 +17296,18 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>36</v>
@@ -17302,23 +17316,21 @@
         <v>36</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>36</v>
       </c>
@@ -17354,36 +17366,36 @@
         <v>36</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC157" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -17409,17 +17421,15 @@
         <v>109</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>36</v>
       </c>
@@ -17467,7 +17477,7 @@
         <v>36</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>37</v>
@@ -17476,7 +17486,7 @@
         <v>44</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>52</v>
@@ -17484,7 +17494,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -17495,7 +17505,7 @@
         <v>37</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>36</v>
@@ -17504,19 +17514,19 @@
         <v>36</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>424</v>
+        <v>104</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>426</v>
+        <v>232</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -17566,24 +17576,24 @@
         <v>36</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>423</v>
+        <v>234</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -17603,19 +17613,19 @@
         <v>36</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J160" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -17665,7 +17675,7 @@
         <v>36</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>37</v>
@@ -17682,11 +17692,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -17705,16 +17715,16 @@
         <v>36</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>91</v>
+        <v>435</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>115</v>
+        <v>436</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>93</v>
+        <v>437</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -17752,19 +17762,19 @@
         <v>36</v>
       </c>
       <c r="AA161" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB161" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC161" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD161" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>116</v>
+        <v>434</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>37</v>
@@ -17776,12 +17786,12 @@
         <v>51</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>98</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -17801,19 +17811,19 @@
         <v>36</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -17863,7 +17873,7 @@
         <v>36</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>37</v>
@@ -17872,7 +17882,7 @@
         <v>44</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>52</v>
@@ -17880,18 +17890,18 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>36</v>
@@ -17900,19 +17910,19 @@
         <v>36</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -17950,68 +17960,68 @@
         <v>36</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB163" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC163" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>36</v>
+        <v>405</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>36</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -18061,24 +18071,24 @@
         <v>36</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -18098,19 +18108,19 @@
         <v>36</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>435</v>
+        <v>276</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
@@ -18136,13 +18146,13 @@
         <v>36</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>36</v>
+        <v>446</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>36</v>
@@ -18160,7 +18170,7 @@
         <v>36</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>37</v>
@@ -18169,15 +18179,15 @@
         <v>38</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>51</v>
+        <v>447</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>436</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -18276,7 +18286,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -18375,11 +18385,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>403</v>
+        <v>36</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -18392,24 +18402,26 @@
         <v>36</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>404</v>
+        <v>140</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N168" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O168" t="s" s="2">
         <v>36</v>
       </c>
@@ -18457,7 +18469,7 @@
         <v>36</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>405</v>
+        <v>143</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>37</v>
@@ -18469,12 +18481,12 @@
         <v>51</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -18485,7 +18497,7 @@
         <v>37</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>36</v>
@@ -18494,19 +18506,19 @@
         <v>36</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>441</v>
+        <v>110</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>442</v>
+        <v>111</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -18532,13 +18544,13 @@
         <v>36</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>443</v>
+        <v>36</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>444</v>
+        <v>36</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>36</v>
@@ -18556,16 +18568,16 @@
         <v>36</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>440</v>
+        <v>113</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>445</v>
+        <v>51</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>52</v>
@@ -18573,18 +18585,18 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>36</v>
@@ -18596,16 +18608,16 @@
         <v>36</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -18643,47 +18655,47 @@
         <v>36</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC170" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>36</v>
@@ -18692,21 +18704,23 @@
         <v>36</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N171" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O171" t="s" s="2">
         <v>36</v>
       </c>
@@ -18742,36 +18756,36 @@
         <v>36</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB171" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC171" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -18782,7 +18796,7 @@
         <v>37</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>36</v>
@@ -18794,20 +18808,18 @@
         <v>45</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
         <v>36</v>
       </c>
@@ -18855,13 +18867,13 @@
         <v>36</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>51</v>
@@ -18872,7 +18884,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -18892,21 +18904,23 @@
         <v>36</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N173" s="2"/>
+      <c r="N173" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O173" t="s" s="2">
         <v>36</v>
       </c>
@@ -18954,7 +18968,7 @@
         <v>36</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>37</v>
@@ -18971,18 +18985,18 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>36</v>
@@ -18991,21 +19005,23 @@
         <v>36</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N174" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O174" t="s" s="2">
         <v>36</v>
       </c>
@@ -19041,36 +19057,36 @@
         <v>36</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -19093,19 +19109,19 @@
         <v>45</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>36</v>
@@ -19154,7 +19170,7 @@
         <v>36</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>37</v>
@@ -19171,7 +19187,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -19197,15 +19213,17 @@
         <v>109</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N176" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O176" t="s" s="2">
         <v>36</v>
       </c>
@@ -19253,7 +19271,7 @@
         <v>36</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>37</v>
@@ -19270,7 +19288,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -19281,7 +19299,7 @@
         <v>37</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>36</v>
@@ -19293,20 +19311,18 @@
         <v>45</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>158</v>
+        <v>461</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>159</v>
+        <v>462</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
         <v>36</v>
       </c>
@@ -19354,24 +19370,24 @@
         <v>36</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>161</v>
+        <v>459</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>51</v>
+        <v>447</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -19391,23 +19407,21 @@
         <v>36</v>
       </c>
       <c r="I178" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J178" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N178" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
         <v>36</v>
       </c>
@@ -19455,7 +19469,7 @@
         <v>36</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>37</v>
@@ -19472,18 +19486,18 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>36</v>
@@ -19492,23 +19506,21 @@
         <v>36</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
         <v>36</v>
       </c>
@@ -19544,36 +19556,36 @@
         <v>36</v>
       </c>
       <c r="AA179" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC179" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD179" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -19599,17 +19611,15 @@
         <v>109</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>36</v>
       </c>
@@ -19657,7 +19667,7 @@
         <v>36</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>37</v>
@@ -19666,7 +19676,7 @@
         <v>44</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>52</v>
@@ -19674,7 +19684,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -19685,7 +19695,7 @@
         <v>37</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>36</v>
@@ -19697,16 +19707,16 @@
         <v>45</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>458</v>
+        <v>104</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>460</v>
+        <v>232</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
@@ -19756,24 +19766,24 @@
         <v>36</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>445</v>
+        <v>51</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -19793,19 +19803,19 @@
         <v>36</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -19855,7 +19865,7 @@
         <v>36</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>37</v>
@@ -19872,11 +19882,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -19895,16 +19905,16 @@
         <v>36</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>90</v>
+        <v>469</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>91</v>
+        <v>470</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>115</v>
+        <v>471</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>93</v>
+        <v>472</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
@@ -19942,19 +19952,19 @@
         <v>36</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AB183" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC183" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>116</v>
+        <v>468</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>37</v>
@@ -19966,12 +19976,12 @@
         <v>51</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -19991,19 +20001,19 @@
         <v>36</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J184" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
@@ -20053,7 +20063,7 @@
         <v>36</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>37</v>
@@ -20062,7 +20072,7 @@
         <v>44</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>52</v>
@@ -20070,18 +20080,18 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>36</v>
@@ -20090,19 +20100,19 @@
         <v>36</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
@@ -20140,36 +20150,36 @@
         <v>36</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AB185" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC185" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD185" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -20192,16 +20202,16 @@
         <v>45</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>109</v>
+        <v>476</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>236</v>
+        <v>477</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>237</v>
+        <v>478</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -20251,7 +20261,7 @@
         <v>36</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>239</v>
+        <v>479</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>37</v>
@@ -20263,12 +20273,12 @@
         <v>51</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -20279,7 +20289,7 @@
         <v>37</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>36</v>
@@ -20288,20 +20298,18 @@
         <v>36</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>467</v>
+        <v>203</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
         <v>36</v>
@@ -20350,13 +20358,13 @@
         <v>36</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>51</v>
@@ -20367,7 +20375,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -20375,7 +20383,7 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F188" t="s" s="2">
         <v>44</v>
@@ -20393,10 +20401,10 @@
         <v>109</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>110</v>
+        <v>485</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="M188" t="s" s="2">
         <v>112</v>
@@ -20449,10 +20457,10 @@
         <v>36</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>113</v>
+        <v>487</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>44</v>
@@ -20464,402 +20472,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" hidden="true">
-      <c r="A189" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N189" s="2"/>
-      <c r="O189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="190" hidden="true">
-      <c r="A190" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N190" s="2"/>
-      <c r="O190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="191" hidden="true">
-      <c r="A191" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="192" hidden="true">
-      <c r="A192" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N192" s="2"/>
-      <c r="O192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P192" s="2"/>
-      <c r="Q192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI192">
+  <autoFilter ref="A1:AI188">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20869,7 +20483,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI191">
+  <conditionalFormatting sqref="A2:AI187">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
